--- a/MultiThread/マルチスレッド処理時間表.xlsx
+++ b/MultiThread/マルチスレッド処理時間表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\Training\MultiThread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5BBB8-E39F-4F6F-8DBB-76C04BE21F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A49A59-7184-4FBC-AD4B-FA453F11003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11175" yWindow="855" windowWidth="16575" windowHeight="15135" xr2:uid="{EC90A73B-A35F-4965-9881-677F81E4569B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>１回目</t>
     <rPh sb="1" eb="3">
@@ -136,6 +136,14 @@
     <rPh sb="4" eb="5">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Debug)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Release)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -334,6 +342,122 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C056718-5C04-41F8-AC88-A26D5E53FF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="504827"/>
+          <a:ext cx="666749" cy="285527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>処理方法</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685800" cy="219073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AD6D0D-79EC-49DE-955E-80D6B2B25107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438276" y="419102"/>
+          <a:ext cx="685800" cy="219073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>計測回数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666749" cy="285527"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3BB4C4-F24A-4838-A8F9-421E75C6C812}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -678,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C08EA4C-650B-4ECD-8416-5BABB953F501}">
-  <dimension ref="B3:M11"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -689,6 +813,11 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -764,27 +893,107 @@
         <v>88.166134699999986</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.2472349999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.1239819999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.2386239999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7.1143190000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.1149789999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>7.139278</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7.1358610000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7.1825400000000004</v>
+      </c>
+      <c r="K13" s="4">
+        <v>7.1006619999999998</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7.1455450000000003</v>
+      </c>
+      <c r="M13" s="4">
+        <f>AVERAGE(C13:L13)</f>
+        <v>7.1543025</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C20">
         <v>12</v>
       </c>
     </row>

--- a/MultiThread/マルチスレッド処理時間表.xlsx
+++ b/MultiThread/マルチスレッド処理時間表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\Training\MultiThread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A49A59-7184-4FBC-AD4B-FA453F11003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDC4A2-70BD-4BEA-BE3E-B20C39957E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="855" windowWidth="16575" windowHeight="15135" xr2:uid="{EC90A73B-A35F-4965-9881-677F81E4569B}"/>
+    <workbookView xWindow="15630" yWindow="375" windowWidth="12435" windowHeight="14430" xr2:uid="{EC90A73B-A35F-4965-9881-677F81E4569B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C08EA4C-650B-4ECD-8416-5BABB953F501}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -859,40 +859,41 @@
         <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>88.547612000000001</v>
+        <v>59.855293000000003</v>
       </c>
       <c r="D4" s="4">
-        <v>88.101391000000007</v>
+        <v>59.224733000000001</v>
       </c>
       <c r="E4" s="4">
-        <v>88.154747999999998</v>
+        <v>59.626784000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>88.003240000000005</v>
+        <v>59.568806000000002</v>
       </c>
       <c r="G4" s="4">
-        <v>87.882930000000002</v>
+        <v>59.444401999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>88.230575999999999</v>
+        <v>59.544998</v>
       </c>
       <c r="I4" s="4">
-        <v>88.136139999999997</v>
+        <v>59.596809999999998</v>
       </c>
       <c r="J4" s="4">
-        <v>88.306010000000001</v>
+        <v>59.540396999999999</v>
       </c>
       <c r="K4" s="4">
-        <v>88.190353999999999</v>
+        <v>59.842787000000001</v>
       </c>
       <c r="L4" s="4">
-        <v>88.108345999999997</v>
+        <v>59.306260000000002</v>
       </c>
       <c r="M4" s="4">
         <f>AVERAGE(C4:L4)</f>
-        <v>88.166134699999986</v>
+        <v>59.555126999999992</v>
       </c>
     </row>
+    <row r="10" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>17</v>
@@ -939,38 +940,38 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>7.2472349999999999</v>
+        <v>6.8702030000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>7.1239819999999998</v>
+        <v>6.8900259999999998</v>
       </c>
       <c r="E13" s="4">
-        <v>7.2386239999999997</v>
+        <v>6.8681159999999997</v>
       </c>
       <c r="F13" s="4">
-        <v>7.1143190000000001</v>
+        <v>6.9329499999999999</v>
       </c>
       <c r="G13" s="4">
-        <v>7.1149789999999999</v>
+        <v>6.8510220000000004</v>
       </c>
       <c r="H13" s="4">
-        <v>7.139278</v>
+        <v>6.8913739999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>7.1358610000000002</v>
+        <v>6.9783689999999998</v>
       </c>
       <c r="J13" s="4">
-        <v>7.1825400000000004</v>
+        <v>6.9448379999999998</v>
       </c>
       <c r="K13" s="4">
-        <v>7.1006619999999998</v>
+        <v>6.868817</v>
       </c>
       <c r="L13" s="4">
-        <v>7.1455450000000003</v>
+        <v>6.8695079999999997</v>
       </c>
       <c r="M13" s="4">
         <f>AVERAGE(C13:L13)</f>
-        <v>7.1543025</v>
+        <v>6.8965222999999991</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">

--- a/MultiThread/マルチスレッド処理時間表.xlsx
+++ b/MultiThread/マルチスレッド処理時間表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\Training\MultiThread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABDC4A2-70BD-4BEA-BE3E-B20C39957E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B17954-E4E8-473D-BDDC-27D53D2F2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="375" windowWidth="12435" windowHeight="14430" xr2:uid="{EC90A73B-A35F-4965-9881-677F81E4569B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>１回目</t>
     <rPh sb="1" eb="3">
@@ -144,6 +144,25 @@
   </si>
   <si>
     <t>(Release)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチ(パラメタ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチ(パラメタ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチ(パラメタ3</t>
+  </si>
+  <si>
+    <t>マルチ(パラメタ5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチ(パラメタ10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -273,9 +292,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>752476</xdr:colOff>
+      <xdr:colOff>1066801</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:rowOff>190502</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="219073"/>
     <xdr:sp macro="" textlink="">
@@ -291,7 +310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438276" y="419102"/>
+          <a:off x="1752601" y="428627"/>
           <a:ext cx="685800" cy="219073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -389,9 +408,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>752476</xdr:colOff>
+      <xdr:colOff>1133476</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
+      <xdr:rowOff>209552</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="685800" cy="219073"/>
     <xdr:sp macro="" textlink="">
@@ -407,7 +426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438276" y="419102"/>
+          <a:off x="1819276" y="2581277"/>
           <a:ext cx="685800" cy="219073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -802,15 +821,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C08EA4C-650B-4ECD-8416-5BABB953F501}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
@@ -974,27 +993,222 @@
         <v>6.8965222999999991</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.225063</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.0867370000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.049631</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0881829999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.88278900000000005</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.0966499999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.0640970000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.112047</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.99278900000000003</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.165484</v>
+      </c>
+      <c r="M14" s="4">
+        <f>AVERAGE(C14:L14)</f>
+        <v>1.0763469999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.98127399999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.1474420000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.022362</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.97210300000000005</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.010246</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.124233</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.907752</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.91755200000000003</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.94213100000000005</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1.1186769999999999</v>
+      </c>
+      <c r="M15" s="4">
+        <f>AVERAGE(C15:L15)</f>
+        <v>1.0143772</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.0919540000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.0910070000000001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.074519</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.039039</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.1557759999999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.080543</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.106174</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.923265</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.92242299999999999</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.96724100000000002</v>
+      </c>
+      <c r="M16" s="4">
+        <f>AVERAGE(C16:L16)</f>
+        <v>1.0451941</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.90192000000000005</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.88306799999999996</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.0800620000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.180412</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.0503450000000001</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.0931690000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.001091</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.90159</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.84477000000000002</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.99639</v>
+      </c>
+      <c r="M17" s="4">
+        <f>AVERAGE(C17:L17)</f>
+        <v>0.99328170000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.89845299999999995</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.96744699999999995</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.898038</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.0343560000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.87102599999999997</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.001871</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.2003600000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.081901</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1.031366</v>
+      </c>
+      <c r="M18" s="4">
+        <f>AVERAGE(C18:L18)</f>
+        <v>0.99480180000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="C28">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="C29">
         <v>12</v>
       </c>
     </row>
